--- a/Factura.xlsx
+++ b/Factura.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abelr\Desktop\CURSO DE NIVELACION\OFIMATICA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desarrollo\primerotics\Avila_ejercicio1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14AB4D63-DE06-4444-9810-EAB36AC06E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAEBD8E-E8BF-4E34-9C62-0999A7DA79DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="915" windowWidth="24240" windowHeight="13140" xr2:uid="{77B684AB-3715-454F-97BB-D9A73F90AED0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="12900" xr2:uid="{77B684AB-3715-454F-97BB-D9A73F90AED0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>CANTIDAD</t>
   </si>
@@ -68,15 +68,6 @@
   </si>
   <si>
     <t>Procesador Intel Core I5</t>
-  </si>
-  <si>
-    <t>Audifonos Ps4</t>
-  </si>
-  <si>
-    <t>Teclado 4en1</t>
-  </si>
-  <si>
-    <t>Mouse Xtrike</t>
   </si>
   <si>
     <t>Tarjeta Grafica Nvidia Geforce Gtx</t>
@@ -153,7 +144,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;\-#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;\-#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="[$$-300A]#,##0.00;[Red][$$-300A]\-#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$$-300A]#,##0.00;[Red][$$-300A]\-#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -239,19 +230,10 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -259,14 +241,23 @@
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -651,7 +642,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,302 +652,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="2"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1"/>
+      <c r="A8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="15"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1"/>
+      <c r="A10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="15"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>1</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="9">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="6">
         <v>250</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="6">
         <f>A13*E13</f>
         <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
+        <f t="shared" ref="F14:F22" si="0">A14*E14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>1</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="9">
-        <v>11.99</v>
-      </c>
-      <c r="F14" s="9">
-        <f t="shared" ref="F14:F22" si="0">A14*E14</f>
-        <v>11.99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="9">
-        <v>29</v>
-      </c>
-      <c r="F15" s="9">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="11">
-        <v>15</v>
-      </c>
-      <c r="F16" s="9">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="9">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="6">
         <v>358.99</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="6">
         <f t="shared" si="0"/>
         <v>358.99</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>4</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="9">
+      <c r="B18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="6">
         <v>32.75</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="6">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>1</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="9">
+      <c r="B19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="6">
         <v>109.99</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="6">
         <f t="shared" si="0"/>
         <v>109.99</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>1</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="11">
+      <c r="B20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="8">
         <v>139</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="6">
         <f t="shared" si="0"/>
         <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>1</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="16">
+      <c r="B21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11">
         <v>24.88</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="6">
         <f t="shared" si="0"/>
         <v>24.88</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>1</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="12">
+      <c r="B22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="9">
         <v>27.25</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="6">
         <f t="shared" si="0"/>
         <v>27.25</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="10">
         <f>SUM(F13:F22)</f>
-        <v>1097.1000000000001</v>
-      </c>
-      <c r="H23" s="5"/>
+        <v>1041.1100000000001</v>
+      </c>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="10">
         <f>F23*0.12</f>
-        <v>131.65200000000002</v>
+        <v>124.93320000000001</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="10">
         <f>F23+F24</f>
-        <v>1228.7520000000002</v>
+        <v>1166.0432000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="A3:F3"/>
@@ -973,8 +948,6 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
